--- a/REGULAR/CCT/RODRIGUEZ, GREGORIO.xlsx
+++ b/REGULAR/CCT/RODRIGUEZ, GREGORIO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="156">
   <si>
     <t>PERIOD</t>
   </si>
@@ -495,6 +495,12 @@
   </si>
   <si>
     <t>8/30,31/2023</t>
+  </si>
+  <si>
+    <t>11/9,10/2023</t>
+  </si>
+  <si>
+    <t>12/7,8/2023</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1233,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K410" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K411" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -1556,12 +1562,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K410"/>
+  <dimension ref="A2:K411"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2625" topLeftCell="A349" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="J363" sqref="J363"/>
+      <selection pane="bottomLeft" activeCell="K367" sqref="K367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1728,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>264.17599999999999</v>
+        <v>262.67599999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1732,7 +1738,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>401.53300000000002</v>
+        <v>404.03300000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9417,13 +9423,15 @@
         <v>45170</v>
       </c>
       <c r="B364" s="20"/>
-      <c r="C364" s="13"/>
+      <c r="C364" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D364" s="39"/>
       <c r="E364" s="9"/>
       <c r="F364" s="20"/>
-      <c r="G364" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G364" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H364" s="39"/>
       <c r="I364" s="9"/>
@@ -9435,13 +9443,15 @@
         <v>45200</v>
       </c>
       <c r="B365" s="20"/>
-      <c r="C365" s="13"/>
+      <c r="C365" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D365" s="39"/>
       <c r="E365" s="9"/>
       <c r="F365" s="20"/>
-      <c r="G365" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G365" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H365" s="39"/>
       <c r="I365" s="9"/>
@@ -9452,9 +9462,13 @@
       <c r="A366" s="40">
         <v>45231</v>
       </c>
-      <c r="B366" s="20"/>
+      <c r="B366" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C366" s="13"/>
-      <c r="D366" s="39"/>
+      <c r="D366" s="39">
+        <v>2</v>
+      </c>
       <c r="E366" s="9"/>
       <c r="F366" s="20"/>
       <c r="G366" s="13" t="str">
@@ -9464,15 +9478,19 @@
       <c r="H366" s="39"/>
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
-      <c r="K366" s="20"/>
+      <c r="K366" s="20" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B367" s="20"/>
+      <c r="A367" s="40"/>
+      <c r="B367" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C367" s="13"/>
-      <c r="D367" s="39"/>
+      <c r="D367" s="39">
+        <v>2</v>
+      </c>
       <c r="E367" s="9"/>
       <c r="F367" s="20"/>
       <c r="G367" s="13" t="str">
@@ -9482,11 +9500,13 @@
       <c r="H367" s="39"/>
       <c r="I367" s="9"/>
       <c r="J367" s="11"/>
-      <c r="K367" s="20"/>
+      <c r="K367" s="20" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B368" s="20"/>
       <c r="C368" s="13"/>
@@ -9504,7 +9524,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B369" s="20"/>
       <c r="C369" s="13"/>
@@ -9522,7 +9542,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B370" s="20"/>
       <c r="C370" s="13"/>
@@ -9540,7 +9560,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B371" s="20"/>
       <c r="C371" s="13"/>
@@ -9558,7 +9578,7 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
@@ -9576,7 +9596,7 @@
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B373" s="20"/>
       <c r="C373" s="13"/>
@@ -9594,7 +9614,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
@@ -9612,7 +9632,7 @@
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B375" s="20"/>
       <c r="C375" s="13"/>
@@ -9630,7 +9650,7 @@
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B376" s="20"/>
       <c r="C376" s="13"/>
@@ -9648,7 +9668,7 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B377" s="20"/>
       <c r="C377" s="13"/>
@@ -9666,7 +9686,7 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B378" s="20"/>
       <c r="C378" s="13"/>
@@ -9684,7 +9704,7 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
@@ -9702,7 +9722,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B380" s="20"/>
       <c r="C380" s="13"/>
@@ -9720,7 +9740,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B381" s="20"/>
       <c r="C381" s="13"/>
@@ -9738,7 +9758,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -9756,7 +9776,7 @@
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B383" s="20"/>
       <c r="C383" s="13"/>
@@ -9774,7 +9794,7 @@
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B384" s="20"/>
       <c r="C384" s="13"/>
@@ -9792,7 +9812,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B385" s="20"/>
       <c r="C385" s="13"/>
@@ -9810,7 +9830,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
@@ -9827,7 +9847,9 @@
       <c r="K386" s="20"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="40"/>
+      <c r="A387" s="40">
+        <v>45839</v>
+      </c>
       <c r="B387" s="20"/>
       <c r="C387" s="13"/>
       <c r="D387" s="39"/>
@@ -10195,20 +10217,36 @@
       <c r="K409" s="20"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="41"/>
-      <c r="B410" s="15"/>
-      <c r="C410" s="42"/>
-      <c r="D410" s="43"/>
+      <c r="A410" s="40"/>
+      <c r="B410" s="20"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="39"/>
       <c r="E410" s="9"/>
-      <c r="F410" s="15"/>
-      <c r="G410" s="42" t="str">
+      <c r="F410" s="20"/>
+      <c r="G410" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H410" s="43"/>
+      <c r="H410" s="39"/>
       <c r="I410" s="9"/>
-      <c r="J410" s="12"/>
-      <c r="K410" s="15"/>
+      <c r="J410" s="11"/>
+      <c r="K410" s="20"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="41"/>
+      <c r="B411" s="15"/>
+      <c r="C411" s="42"/>
+      <c r="D411" s="43"/>
+      <c r="E411" s="9"/>
+      <c r="F411" s="15"/>
+      <c r="G411" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H411" s="43"/>
+      <c r="I411" s="9"/>
+      <c r="J411" s="12"/>
+      <c r="K411" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
